--- a/water_usage_report.xlsx
+++ b/water_usage_report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -442,9 +442,57 @@
         <v>4000 litres</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>21/8/2024, 4:35:17 pm</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4000 litres</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>21/8/2024, 4:35:37 pm</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3000 litres</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>21/8/2024, 4:37:27 pm</v>
+      </c>
+      <c r="B8" t="str">
+        <v>500 litres</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>21/8/2024, 4:59:21 pm</v>
+      </c>
+      <c r="B9" t="str">
+        <v>4000 litres</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>21/8/2024, 4:59:57 pm</v>
+      </c>
+      <c r="B10" t="str">
+        <v>200 litres</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>21/8/2024, 5:00:27 pm</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2000 litres</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>